--- a/Aktiviteetit/Vuosi_2025/Aktiviteetit_Toukokuu.xlsx
+++ b/Aktiviteetit/Vuosi_2025/Aktiviteetit_Toukokuu.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Activities_Toukokuu" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="activities" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Aktiviteetit/Vuosi_2025/Aktiviteetit_Toukokuu.xlsx
+++ b/Aktiviteetit/Vuosi_2025/Aktiviteetit_Toukokuu.xlsx
@@ -479,10 +479,8 @@
       <c r="B2" t="n">
         <v>1.87</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>00:09:38</t>
-        </is>
+      <c r="C2" t="n">
+        <v>578</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -512,10 +510,8 @@
       <c r="B3" t="n">
         <v>8.41</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>00:39:55</t>
-        </is>
+      <c r="C3" t="n">
+        <v>2395</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -545,10 +541,8 @@
       <c r="B4" t="n">
         <v>1.86</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>00:09:45</t>
-        </is>
+      <c r="C4" t="n">
+        <v>585</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -578,10 +572,8 @@
       <c r="B5" t="n">
         <v>12.05</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>01:09:35</t>
-        </is>
+      <c r="C5" t="n">
+        <v>4175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -611,10 +603,8 @@
       <c r="B6" t="n">
         <v>10.63</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>01:00:53</t>
-        </is>
+      <c r="C6" t="n">
+        <v>3653</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>

--- a/Aktiviteetit/Vuosi_2025/Aktiviteetit_Toukokuu.xlsx
+++ b/Aktiviteetit/Vuosi_2025/Aktiviteetit_Toukokuu.xlsx
@@ -504,7 +504,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Intervalli</t>
+          <t>Intervallit</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -597,7 +597,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Aloitus</t>
+          <t>Lunch Run</t>
         </is>
       </c>
       <c r="B6" t="n">
